--- a/jyx2/Assets/Mods/JYX2/Configs/Lua游戏设置.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/Lua游戏设置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\jytest\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0701831D-7C86-492A-BFE7-776AB6A5D9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EB4E20-B7E6-4C33-AB5C-8F46C3E14307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="640" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="1990" windowWidth="19140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -756,7 +756,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
